--- a/data/processed/anexo2_consolidado.xlsx
+++ b/data/processed/anexo2_consolidado.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aportillol\Downloads\archivos para proyecto supervision\processed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aportillol\Documents\proyectos-ucc-portillolaupa\ucc-supervision\data\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E10F01-F017-4FC4-8006-C8D489B754D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E802266-73E5-4A47-80EE-269FC1C69F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="54">
   <si>
     <t>LA LIBERTAD</t>
   </si>
@@ -170,13 +170,25 @@
   </si>
   <si>
     <t>YELITZA RAMOS</t>
+  </si>
+  <si>
+    <t>15/09/2025</t>
+  </si>
+  <si>
+    <t>16/09/2025</t>
+  </si>
+  <si>
+    <t>15/08/2025</t>
+  </si>
+  <si>
+    <t>16/08/2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +204,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -232,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -244,6 +264,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -548,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH4"/>
+  <dimension ref="A1:AH10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -982,6 +1008,636 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B5" s="2">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="3">
+        <v>45916</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="2">
+        <v>2</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2">
+        <v>2</v>
+      </c>
+      <c r="L5" s="2">
+        <v>2</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" s="2">
+        <v>1</v>
+      </c>
+      <c r="P5" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>2</v>
+      </c>
+      <c r="R5" s="2">
+        <v>1</v>
+      </c>
+      <c r="S5" s="2">
+        <v>2</v>
+      </c>
+      <c r="T5" s="2">
+        <v>2</v>
+      </c>
+      <c r="U5" s="6">
+        <v>1</v>
+      </c>
+      <c r="V5" s="2">
+        <v>1</v>
+      </c>
+      <c r="W5" s="2">
+        <v>2</v>
+      </c>
+      <c r="X5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>30</v>
+      </c>
+      <c r="AG5" s="2">
+        <f>AF5/40</f>
+        <v>0.75</v>
+      </c>
+      <c r="AH5" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B6" s="2">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2">
+        <v>2</v>
+      </c>
+      <c r="K6" s="2">
+        <v>2</v>
+      </c>
+      <c r="L6" s="2">
+        <v>2</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O6" s="2">
+        <v>2</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R6" s="2">
+        <v>1</v>
+      </c>
+      <c r="S6" s="2">
+        <v>1</v>
+      </c>
+      <c r="T6" s="2">
+        <v>1</v>
+      </c>
+      <c r="U6" s="2">
+        <v>1</v>
+      </c>
+      <c r="V6" s="2">
+        <v>2</v>
+      </c>
+      <c r="W6" s="2">
+        <v>2</v>
+      </c>
+      <c r="X6" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>18</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>2</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>27</v>
+      </c>
+      <c r="AG6" s="2">
+        <f t="shared" ref="AG6:AG7" si="1">AF6/40</f>
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="AH6" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B7" s="2">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="5">
+        <v>2</v>
+      </c>
+      <c r="J7" s="2">
+        <v>2</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1</v>
+      </c>
+      <c r="L7" s="2">
+        <v>2</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O7" s="2">
+        <v>2</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0</v>
+      </c>
+      <c r="R7" s="2">
+        <v>2</v>
+      </c>
+      <c r="S7" s="2">
+        <v>1</v>
+      </c>
+      <c r="T7" s="2">
+        <v>2</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V7" s="2">
+        <v>1</v>
+      </c>
+      <c r="W7" s="2">
+        <v>2</v>
+      </c>
+      <c r="X7" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>18</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>2</v>
+      </c>
+      <c r="AF7" s="2">
+        <v>28</v>
+      </c>
+      <c r="AG7" s="2">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="AH7" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B8" s="2">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="3">
+        <v>45885</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="2">
+        <v>2</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2">
+        <v>2</v>
+      </c>
+      <c r="L8" s="2">
+        <v>2</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O8" s="2">
+        <v>1</v>
+      </c>
+      <c r="P8" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>2</v>
+      </c>
+      <c r="R8" s="2">
+        <v>1</v>
+      </c>
+      <c r="S8" s="2">
+        <v>2</v>
+      </c>
+      <c r="T8" s="2">
+        <v>2</v>
+      </c>
+      <c r="U8" s="2">
+        <v>0</v>
+      </c>
+      <c r="V8" s="2">
+        <v>1</v>
+      </c>
+      <c r="W8" s="2">
+        <v>2</v>
+      </c>
+      <c r="X8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="2">
+        <v>30</v>
+      </c>
+      <c r="AG8" s="2">
+        <f>AF8/40</f>
+        <v>0.75</v>
+      </c>
+      <c r="AH8" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B9" s="2">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2">
+        <v>2</v>
+      </c>
+      <c r="K9" s="2">
+        <v>2</v>
+      </c>
+      <c r="L9" s="2">
+        <v>2</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O9" s="2">
+        <v>2</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R9" s="2">
+        <v>1</v>
+      </c>
+      <c r="S9" s="2">
+        <v>1</v>
+      </c>
+      <c r="T9" s="2">
+        <v>1</v>
+      </c>
+      <c r="U9" s="2">
+        <v>0</v>
+      </c>
+      <c r="V9" s="2">
+        <v>2</v>
+      </c>
+      <c r="W9" s="2">
+        <v>2</v>
+      </c>
+      <c r="X9" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB9" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>18</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>2</v>
+      </c>
+      <c r="AF9" s="2">
+        <v>27</v>
+      </c>
+      <c r="AG9" s="2">
+        <f t="shared" ref="AG9:AG10" si="2">AF9/40</f>
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="AH9" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B10" s="2">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="2">
+        <v>2</v>
+      </c>
+      <c r="J10" s="2">
+        <v>2</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1</v>
+      </c>
+      <c r="L10" s="2">
+        <v>2</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O10" s="2">
+        <v>2</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>0</v>
+      </c>
+      <c r="R10" s="2">
+        <v>2</v>
+      </c>
+      <c r="S10" s="2">
+        <v>1</v>
+      </c>
+      <c r="T10" s="2">
+        <v>2</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V10" s="2">
+        <v>1</v>
+      </c>
+      <c r="W10" s="2">
+        <v>2</v>
+      </c>
+      <c r="X10" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>18</v>
+      </c>
+      <c r="AE10" s="2">
+        <v>2</v>
+      </c>
+      <c r="AF10" s="2">
+        <v>28</v>
+      </c>
+      <c r="AG10" s="2">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
+      </c>
+      <c r="AH10" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/processed/anexo2_consolidado.xlsx
+++ b/data/processed/anexo2_consolidado.xlsx
@@ -1,26 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aportillol\Documents\proyectos-ucc-portillolaupa\ucc-supervision\data\processed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexportillo/Documents/Proyectos Data Science/ucc-supervision/data/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E802266-73E5-4A47-80EE-269FC1C69F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105D149F-63F0-A542-A746-EA70746788F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="140" yWindow="660" windowWidth="28480" windowHeight="15780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="59">
   <si>
     <t>LA LIBERTAD</t>
   </si>
@@ -172,23 +186,38 @@
     <t>YELITZA RAMOS</t>
   </si>
   <si>
-    <t>15/09/2025</t>
-  </si>
-  <si>
-    <t>16/09/2025</t>
-  </si>
-  <si>
-    <t>15/08/2025</t>
-  </si>
-  <si>
-    <t>16/08/2025</t>
+    <t>CAJAMARCA</t>
+  </si>
+  <si>
+    <t>REGULAR</t>
+  </si>
+  <si>
+    <t>CUSCO</t>
+  </si>
+  <si>
+    <t>JULIACA</t>
+  </si>
+  <si>
+    <t>DEFICIENTE</t>
+  </si>
+  <si>
+    <t>AREQUIPA</t>
+  </si>
+  <si>
+    <t>CARLOS DIAZ</t>
+  </si>
+  <si>
+    <t>NOMBRE4</t>
+  </si>
+  <si>
+    <t>NOMBRE5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,14 +233,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -252,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -266,12 +287,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -574,22 +590,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH10"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="2" customWidth="1"/>
-    <col min="2" max="6" width="8.81640625" style="2"/>
-    <col min="7" max="7" width="10.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.453125" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.81640625" style="2"/>
+    <col min="1" max="1" width="8.83203125" style="2" customWidth="1"/>
+    <col min="2" max="6" width="8.83203125" style="2"/>
+    <col min="7" max="7" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -693,7 +709,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>2025</v>
       </c>
@@ -798,7 +814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2025</v>
       </c>
@@ -903,7 +919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2025</v>
       </c>
@@ -1008,639 +1024,616 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>2025</v>
-      </c>
-      <c r="B5" s="2">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="3">
-        <v>45916</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="2">
-        <v>2</v>
-      </c>
-      <c r="J5" s="2">
-        <v>1</v>
-      </c>
-      <c r="K5" s="2">
-        <v>2</v>
-      </c>
-      <c r="L5" s="2">
-        <v>2</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O5" s="2">
-        <v>1</v>
-      </c>
-      <c r="P5" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>2</v>
-      </c>
-      <c r="R5" s="2">
-        <v>1</v>
-      </c>
-      <c r="S5" s="2">
-        <v>2</v>
-      </c>
-      <c r="T5" s="2">
-        <v>2</v>
-      </c>
-      <c r="U5" s="6">
-        <v>1</v>
-      </c>
-      <c r="V5" s="2">
-        <v>1</v>
-      </c>
-      <c r="W5" s="2">
-        <v>2</v>
-      </c>
-      <c r="X5" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="2">
-        <v>2</v>
-      </c>
-      <c r="Z5" s="2">
-        <v>2</v>
-      </c>
-      <c r="AA5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB5" s="2">
-        <v>2</v>
-      </c>
-      <c r="AC5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD5" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF5" s="2">
-        <v>30</v>
-      </c>
-      <c r="AG5" s="2">
-        <f>AF5/40</f>
-        <v>0.75</v>
-      </c>
-      <c r="AH5" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>2025</v>
-      </c>
-      <c r="B6" s="2">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" s="2">
-        <v>1</v>
-      </c>
-      <c r="J6" s="2">
-        <v>2</v>
-      </c>
-      <c r="K6" s="2">
-        <v>2</v>
-      </c>
-      <c r="L6" s="2">
-        <v>2</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="O6" s="2">
-        <v>2</v>
-      </c>
-      <c r="P6" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R6" s="2">
-        <v>1</v>
-      </c>
-      <c r="S6" s="2">
-        <v>1</v>
-      </c>
-      <c r="T6" s="2">
-        <v>1</v>
-      </c>
-      <c r="U6" s="2">
-        <v>1</v>
-      </c>
-      <c r="V6" s="2">
-        <v>2</v>
-      </c>
-      <c r="W6" s="2">
-        <v>2</v>
-      </c>
-      <c r="X6" s="2">
-        <v>2</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>2</v>
-      </c>
-      <c r="Z6" s="2">
-        <v>2</v>
-      </c>
-      <c r="AA6" s="2">
-        <v>2</v>
-      </c>
-      <c r="AB6" s="2">
-        <v>2</v>
-      </c>
-      <c r="AC6" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD6" s="2">
-        <v>18</v>
-      </c>
-      <c r="AE6" s="2">
-        <v>2</v>
-      </c>
-      <c r="AF6" s="2">
-        <v>27</v>
-      </c>
-      <c r="AG6" s="2">
-        <f t="shared" ref="AG6:AG7" si="1">AF6/40</f>
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="AH6" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>2025</v>
-      </c>
-      <c r="B7" s="2">
-        <v>9</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7" s="5">
-        <v>2</v>
-      </c>
-      <c r="J7" s="2">
-        <v>2</v>
-      </c>
-      <c r="K7" s="2">
-        <v>1</v>
-      </c>
-      <c r="L7" s="2">
-        <v>2</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O7" s="2">
-        <v>2</v>
-      </c>
-      <c r="P7" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>0</v>
-      </c>
-      <c r="R7" s="2">
-        <v>2</v>
-      </c>
-      <c r="S7" s="2">
-        <v>1</v>
-      </c>
-      <c r="T7" s="2">
-        <v>2</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V7" s="2">
-        <v>1</v>
-      </c>
-      <c r="W7" s="2">
-        <v>2</v>
-      </c>
-      <c r="X7" s="2">
-        <v>2</v>
-      </c>
-      <c r="Y7" s="2">
-        <v>2</v>
-      </c>
-      <c r="Z7" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="2">
-        <v>2</v>
-      </c>
-      <c r="AB7" s="2">
-        <v>2</v>
-      </c>
-      <c r="AC7" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD7" s="2">
-        <v>18</v>
-      </c>
-      <c r="AE7" s="2">
-        <v>2</v>
-      </c>
-      <c r="AF7" s="2">
-        <v>28</v>
-      </c>
-      <c r="AG7" s="2">
-        <f t="shared" si="1"/>
-        <v>0.7</v>
-      </c>
-      <c r="AH7" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>2025</v>
-      </c>
-      <c r="B8" s="2">
-        <v>8</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="3">
-        <v>45885</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8" s="2">
-        <v>2</v>
-      </c>
-      <c r="J8" s="2">
-        <v>1</v>
-      </c>
-      <c r="K8" s="2">
-        <v>2</v>
-      </c>
-      <c r="L8" s="2">
-        <v>2</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O8" s="2">
-        <v>1</v>
-      </c>
-      <c r="P8" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>2</v>
-      </c>
-      <c r="R8" s="2">
-        <v>1</v>
-      </c>
-      <c r="S8" s="2">
-        <v>2</v>
-      </c>
-      <c r="T8" s="2">
-        <v>2</v>
-      </c>
-      <c r="U8" s="2">
-        <v>0</v>
-      </c>
-      <c r="V8" s="2">
-        <v>1</v>
-      </c>
-      <c r="W8" s="2">
-        <v>2</v>
-      </c>
-      <c r="X8" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="2">
-        <v>2</v>
-      </c>
-      <c r="Z8" s="2">
-        <v>2</v>
-      </c>
-      <c r="AA8" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB8" s="2">
-        <v>2</v>
-      </c>
-      <c r="AC8" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD8" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE8" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF8" s="2">
-        <v>30</v>
-      </c>
-      <c r="AG8" s="2">
-        <f>AF8/40</f>
-        <v>0.75</v>
-      </c>
-      <c r="AH8" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>2025</v>
-      </c>
-      <c r="B9" s="2">
-        <v>8</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I9" s="2">
-        <v>1</v>
-      </c>
-      <c r="J9" s="2">
-        <v>2</v>
-      </c>
-      <c r="K9" s="2">
-        <v>2</v>
-      </c>
-      <c r="L9" s="2">
-        <v>2</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="O9" s="2">
-        <v>2</v>
-      </c>
-      <c r="P9" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R9" s="2">
-        <v>1</v>
-      </c>
-      <c r="S9" s="2">
-        <v>1</v>
-      </c>
-      <c r="T9" s="2">
-        <v>1</v>
-      </c>
-      <c r="U9" s="2">
-        <v>0</v>
-      </c>
-      <c r="V9" s="2">
-        <v>2</v>
-      </c>
-      <c r="W9" s="2">
-        <v>2</v>
-      </c>
-      <c r="X9" s="2">
-        <v>2</v>
-      </c>
-      <c r="Y9" s="2">
-        <v>2</v>
-      </c>
-      <c r="Z9" s="2">
-        <v>2</v>
-      </c>
-      <c r="AA9" s="2">
-        <v>2</v>
-      </c>
-      <c r="AB9" s="2">
-        <v>2</v>
-      </c>
-      <c r="AC9" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD9" s="2">
-        <v>18</v>
-      </c>
-      <c r="AE9" s="2">
-        <v>2</v>
-      </c>
-      <c r="AF9" s="2">
-        <v>27</v>
-      </c>
-      <c r="AG9" s="2">
-        <f t="shared" ref="AG9:AG10" si="2">AF9/40</f>
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="AH9" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
-        <v>2025</v>
-      </c>
-      <c r="B10" s="2">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I10" s="2">
-        <v>2</v>
-      </c>
-      <c r="J10" s="2">
-        <v>2</v>
-      </c>
-      <c r="K10" s="2">
-        <v>1</v>
-      </c>
-      <c r="L10" s="2">
-        <v>2</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O10" s="2">
-        <v>2</v>
-      </c>
-      <c r="P10" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>0</v>
-      </c>
-      <c r="R10" s="2">
-        <v>2</v>
-      </c>
-      <c r="S10" s="2">
-        <v>1</v>
-      </c>
-      <c r="T10" s="2">
-        <v>2</v>
-      </c>
-      <c r="U10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V10" s="2">
-        <v>1</v>
-      </c>
-      <c r="W10" s="2">
-        <v>2</v>
-      </c>
-      <c r="X10" s="2">
-        <v>2</v>
-      </c>
-      <c r="Y10" s="2">
-        <v>2</v>
-      </c>
-      <c r="Z10" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA10" s="2">
-        <v>2</v>
-      </c>
-      <c r="AB10" s="2">
-        <v>2</v>
-      </c>
-      <c r="AC10" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD10" s="2">
-        <v>18</v>
-      </c>
-      <c r="AE10" s="2">
-        <v>2</v>
-      </c>
-      <c r="AF10" s="2">
-        <v>28</v>
-      </c>
-      <c r="AG10" s="2">
-        <f t="shared" si="2"/>
-        <v>0.7</v>
-      </c>
-      <c r="AH10" s="2" t="s">
-        <v>1</v>
-      </c>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A13305A4-2EAE-7F4F-A464-3A317BD12CF7}">
+  <dimension ref="A1:AG6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" t="s">
+        <v>24</v>
+      </c>
+      <c r="W1" t="s">
+        <v>25</v>
+      </c>
+      <c r="X1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2025</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="5">
+        <v>45931</v>
+      </c>
+      <c r="H2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>2</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>2</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>2</v>
+      </c>
+      <c r="Z2">
+        <v>2</v>
+      </c>
+      <c r="AA2">
+        <v>20</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>26</v>
+      </c>
+      <c r="AD2">
+        <v>0.65</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2025</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="5">
+        <v>45946</v>
+      </c>
+      <c r="H3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>2</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>2</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>20</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>16</v>
+      </c>
+      <c r="AE3">
+        <v>0.4</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2025</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="5">
+        <v>45942</v>
+      </c>
+      <c r="H4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <v>2</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>2</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>2</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>2</v>
+      </c>
+      <c r="Y4">
+        <v>2</v>
+      </c>
+      <c r="Z4">
+        <v>2</v>
+      </c>
+      <c r="AA4">
+        <v>2</v>
+      </c>
+      <c r="AB4">
+        <v>20</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>22</v>
+      </c>
+      <c r="AE4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2025</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="5">
+        <v>45957</v>
+      </c>
+      <c r="H5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>2</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>2</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>2</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>20</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>16</v>
+      </c>
+      <c r="AE5">
+        <v>0.4</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2025</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="5">
+        <v>45949</v>
+      </c>
+      <c r="H6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>2</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>2</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>2</v>
+      </c>
+      <c r="Z6">
+        <v>1</v>
+      </c>
+      <c r="AA6">
+        <v>2</v>
+      </c>
+      <c r="AB6">
+        <v>20</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>16</v>
+      </c>
+      <c r="AE6">
+        <v>0.4</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>